--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,50 +399,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="D2" t="s">
+    <row r="2" spans="1:6">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -38,23 +38,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>突刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>props</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"突刺",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,9 +102,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,18 +403,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="3" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -418,35 +422,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="E2" t="s">
+    <row r="2" spans="1:6" ht="32.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,19 @@
   </si>
   <si>
     <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"火球術",
+"des":""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -454,6 +467,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="32.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   <si>
     <t>"lab":"火球術",
 "des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,21 +420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="3" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,13 +448,16 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32.4">
+    <row r="2" spans="1:7" ht="32.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -463,11 +470,14 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32.4">
+    <row r="3" spans="1:7" ht="32.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -478,9 +488,12 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icons/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fireball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +69,31 @@
   </si>
   <si>
     <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"閃電術",
+"des":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lunge","fireball"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,12 +140,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,21 +444,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,19 +472,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.4">
+    <row r="2" spans="1:8" ht="32.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -467,34 +497,58 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2"/>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
+    <row r="3" spans="1:8" ht="32.4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32.4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,54 +46,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>icons/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lunge","fireball"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"lab":"突刺",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireball</t>
+"des":"突刺"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"閃電術",
+"des":"閃電術"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"lab":"火球術",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"閃電術",
-"des":""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lunge","fireball"</t>
+"des":"火球術"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"強化",
+"des":"強化"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hpmax":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -456,7 +477,8 @@
     <col min="2" max="2" width="9.21875" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="7" width="10.5546875" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
     <col min="8" max="8" width="22.44140625" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" customWidth="1"/>
   </cols>
@@ -472,13 +494,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -492,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -505,15 +527,15 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -525,21 +547,21 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -548,7 +570,24 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32.4">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -110,11 +110,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"hpmax":10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lifeMax":10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +468,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,32 @@
   </si>
   <si>
     <t>"lifeMax":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"測試",
+"des":"測試"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"test","icon":"icons/16",
+"effects":{"attack":{"value":10,"d":10}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -479,11 +505,12 @@
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="42.77734375" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,10 +533,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32.4">
+    <row r="2" spans="1:9" ht="32.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -526,11 +556,11 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32.4">
+    <row r="3" spans="1:9" ht="32.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -546,11 +576,11 @@
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32.4">
+    <row r="4" spans="1:9" ht="32.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -569,11 +599,11 @@
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32.4">
+    <row r="5" spans="1:9" ht="32.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -586,8 +616,28 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.4">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>refs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lunge","fireball"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,6 +137,32 @@
   <si>
     <t>"id":"test","icon":"icons/16",
 "effects":{"attack":{"value":10,"d":10}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"測試1",
+"des":"測試1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"life":-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lunge",
+"fireball"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,22 +513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="10.21875" customWidth="1"/>
     <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="6" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="42.77734375" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
     <col min="10" max="10" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -547,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2">
@@ -557,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.4">
@@ -577,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32.4">
@@ -590,8 +613,8 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -599,45 +622,68 @@
       <c r="F4">
         <v>5</v>
       </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.4">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.4">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.4">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -157,12 +157,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"life":-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"lunge",
 "fireball"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":"test","icon":"icons/17",
+"effects":{"life":{"value":-1,"d":5}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +517,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -614,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -622,8 +623,8 @@
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,14 @@
   <si>
     <t>"id":"test","icon":"icons/17",
 "effects":{"life":{"value":-1,"d":5}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"str":1,"hpMax":10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -529,12 +537,13 @@
     <col min="5" max="5" width="4.6640625" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,13 +566,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.4">
+    <row r="2" spans="1:10" ht="32.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -580,11 +592,11 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.4">
+    <row r="3" spans="1:10" ht="32.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -600,11 +612,11 @@
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.4">
+    <row r="4" spans="1:10" ht="32.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -623,14 +635,14 @@
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.4">
+    <row r="5" spans="1:10" ht="32.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -643,11 +655,14 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.4">
+    <row r="6" spans="1:10" ht="32.4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -660,14 +675,14 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.4">
+    <row r="7" spans="1:10" ht="32.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -680,10 +695,10 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -18,63 +18,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>refs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>props</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,8 +63,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"lab":"閃電術",
-"des":"閃電術"</t>
+    <t>fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,11 +76,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strong</t>
+    <t>icons/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lunge",
+"fireball"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>icons/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,49 +98,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lifeMax":10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icons/16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"測試",
-"des":"測試"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"id":"test","icon":"icons/16",
-"effects":{"attack":{"value":10,"d":10}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>icons/17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,21 +115,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"lunge",
-"fireball"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"id":"test","icon":"icons/17",
-"effects":{"life":{"value":-1,"d":5}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"str":1,"hpMax":10</t>
+    <t>others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cd":3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cd":3,"range":2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cd":3,"range":2,"mul":1.5,"elm":"phy"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cd":3,"range":5,"mul":1.5,"elm":"fire"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"冰凍術",
+"des":"冰凍術"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"回復術",
+"des":"回復術"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cd":3,"range":5,"mul":2,"elm":"ice"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"dot","value":2,"dur":3,"icon":"icons/0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"buff","stat":"str", "value":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"heal","value":10},
+{"type":"hot","value":5,"dur":5,"icon":"icons/16"},
+{"type":"buff","stat":"str", "value":1,"dur":5,"icon":"icons/16"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +194,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體 Light"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,15 +225,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,184 +532,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.2">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32.4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="6" spans="1:7" ht="46.8">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32.4">
-      <c r="A3" t="s">
+    <row r="7" spans="1:7" ht="31.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="32.4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="32.4">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="32.4">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="32.4">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -58,21 +58,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"lab":"突刺",
-"des":"突刺"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fireball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>icons/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"火球術",
-"des":"火球術"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,11 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"lab":"強化",
-"des":"強化"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icons/16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"cd":3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"cd":3,"range":2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"cd":3,"range":2,"mul":1.5,"elm":"phy"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,35 +120,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cd":3,"range":5,"mul":2,"elm":"ice"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"stats":{"str":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"強化"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cd":3,"heal":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"hot","value":5,"dur":5,"icon":"icons/16","tag":"heal"},
+{"type":"buff","stats":{"str":1},"dur":5,"icon":"icons/16","tag":"strong"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cd":3,"range":2,"mul":1.5,"elm":"phy",
+"self":{"pen":0.1},"target":{"dodge":-0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"突刺",
+"des":"對目標造成{#mul}的{#elm}傷害，{#self}，目標{#target}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"火球術",
+"des":"對目標造成{#mul}的{#elm}傷害"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"lab":"冰凍術",
-"des":"冰凍術"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
+"des":"對目標造成{#mul}的{#elm}傷害"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"lab":"回復術",
-"des":"回復術"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"cd":3,"range":5,"mul":2,"elm":"ice"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"dot","value":2,"dur":3,"icon":"icons/0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"buff","stat":"str", "value":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"heal","value":10},
-{"type":"hot","value":5,"dur":5,"icon":"icons/16"},
-{"type":"buff","stat":"str", "value":1,"dur":5,"icon":"icons/16"}</t>
+"des":"回復{#heal}點生命"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -544,9 +543,9 @@
     <col min="2" max="2" width="9.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="70" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -565,9 +564,9 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -582,110 +581,108 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.2">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="62.4">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.8">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>21</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -144,16 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"type":"hot","value":5,"dur":5,"icon":"icons/16","tag":"heal"},
-{"type":"buff","stats":{"str":1},"dur":5,"icon":"icons/16","tag":"strong"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"cd":3,"range":2,"mul":1.5,"elm":"phy",
-"self":{"pen":0.1},"target":{"dodge":-0.1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"lab":"突刺",
 "des":"對目標造成{#mul}的{#elm}傷害，{#self}，目標{#target}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +161,16 @@
   <si>
     <t>"lab":"回復術",
 "des":"回復{#heal}點生命"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cd":3,"range":2,"mul":1.5,"elm":"phy",
+"self":{"pen":"0.1"},"target":{"dodge":"-0.1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"hot","value":5,"dur":5,"icon":"icons/16","tag":"heal"},
+{"type":"buff","stats":{"str":"1"},"dur":5,"icon":"icons/16","tag":"strong"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -543,7 +543,7 @@
     <col min="2" max="2" width="9.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="70" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" style="1" customWidth="1"/>
@@ -585,13 +585,13 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.2">
@@ -608,7 +608,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2">
@@ -628,7 +628,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -662,10 +662,10 @@
         <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.2">

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -16,13 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>strong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effects</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"cd":3,"range":2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,31 +108,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"cd":3,"range":5,"mul":1.5,"elm":"fire"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>heal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"cd":3,"range":5,"mul":2,"elm":"ice"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"stats":{"str":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"lab":"強化"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"cd":3,"heal":10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,13 +140,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"cd":3,"range":2,"mul":1.5,"elm":"phy",
-"self":{"pen":"0.1"},"target":{"dodge":"-0.1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"type":"hot","value":5,"dur":5,"icon":"icons/16","tag":"heal"},
 {"type":"buff","stats":{"str":"1"},"dur":5,"icon":"icons/16","tag":"strong"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"scope":"self","stat":"pen","a":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"enemy","cd":3,"range":2,"pow":1.5,"flat":0,"elm":"phy","scaling":"atk"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"enemy","cd":3,"range":5,"pow":1.5,"flat":10,"elm":"fire","scaling":"int"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"scope":"self","stat":"str","a":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"enemy","cd":3,"range":5,"pow":2,"flat":10,"elm":"ice","scaling":"int"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"self","cd":3,"pow":2,"flat":10,"scaling":"int"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -543,146 +550,153 @@
     <col min="2" max="2" width="9.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="70" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="39.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="70" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="31.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.2">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="62.4">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" ht="62.4">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:8" ht="31.2">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>strong</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,23 +161,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"scope":"enemy","cd":3,"range":2,"pow":1.5,"flat":0,"elm":"phy","scaling":"atk"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"scope":"enemy","cd":3,"range":5,"pow":1.5,"flat":10,"elm":"fire","scaling":"int"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"scope":"self","stat":"str","a":1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"scope":"enemy","cd":3,"range":5,"pow":2,"flat":10,"elm":"ice","scaling":"int"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"scope":"self","cd":3,"pow":2,"flat":10,"scaling":"int"</t>
+    <t>"scope":"enemy","cd":3,"range":2,"pow":1.5,"flat":0,"elm":"phy","src":"atk"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"enemy","cd":3,"range":5,"pow":2,"flat":10,"elm":"ice","src":"int"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"self","cd":3,"pow":2,"flat":10,"src":"int"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scope":"enemy","cd":3,"range":5,"pow":1.5,"flat":10,"elm":"fire","src":"int","sprite":{"img":"icons/1","scl":1,"deg":-45}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +545,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -550,7 +554,7 @@
     <col min="2" max="2" width="9.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="39.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="45.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="70" style="1" customWidth="1"/>
@@ -596,7 +600,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>33</v>
@@ -616,10 +620,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>26</v>
@@ -633,13 +637,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>27</v>
@@ -656,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>24</v>
@@ -673,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>29</v>

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"lab":"強化"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,11 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"type":"hot","value":5,"dur":5,"icon":"icons/16","tag":"heal"},
-{"type":"buff","stats":{"str":"1"},"dur":5,"icon":"icons/16","tag":"strong"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>procs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +173,15 @@
   </si>
   <si>
     <t>"scope":"enemy","cd":3,"range":5,"pow":1.5,"flat":10,"elm":"fire","src":"int","sprite":{"img":"icons/1","scl":1,"deg":-45}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"scope":"self","type":"dot","value":2,"dur":3,"icon":"icons/0","tag":"bleed"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"scope":"self","type":"hot","value":5,"dur":5,"icon":"icons/16","tag":"heal"},
+{"scope":"self","type":"buff","effects":[{"stat":"str","a":1}],"dur":5,"icon":"icons/16","tag":"strong"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -556,7 +556,7 @@
     <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="72.44140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="39.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="95" style="3" customWidth="1"/>
     <col min="8" max="8" width="70" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
@@ -576,13 +576,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -600,16 +600,16 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.2">
@@ -620,13 +620,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.2">
@@ -637,16 +637,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -660,13 +660,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="62.4">
+    <row r="6" spans="1:8" ht="31.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -677,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.2">

--- a/xls/skill.xlsx
+++ b/xls/skill.xlsx
@@ -112,30 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"lab":"強化"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"突刺",
-"des":"對目標造成{#mul}的{#elm}傷害，{#self}，目標{#target}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"火球術",
-"des":"對目標造成{#mul}的{#elm}傷害"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"冰凍術",
-"des":"對目標造成{#mul}的{#elm}傷害"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"lab":"回復術",
-"des":"回復{#heal}點生命"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>procs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +121,6 @@
   </si>
   <si>
     <t>meta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"scope":"self","stat":"pen","a":0.1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,6 +154,36 @@
   <si>
     <t>{"scope":"self","type":"hot","value":5,"dur":5,"icon":"icons/16","tag":"heal"},
 {"scope":"self","type":"buff","effects":[{"stat":"str","a":1}],"dur":5,"icon":"icons/16","tag":"strong"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"回復術",
+"des":"回復{#fmt}點生命"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"scope":"self","stat":"pen","a":0.1},
+{"scope":"enemy","stat":"def","m":-0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"突刺",
+"des":"對目標造成{#fmt}點{#elm}傷害。{#eff}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"火球術",
+"des":"對目標造成{#fmt}點{#elm}傷害。{#eff}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"冰凍術",
+"des":"對目標造成{#fmt}點{#elm}傷害。{#eff}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"lab":"強化",
+"des":"{#eff}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -576,13 +578,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -600,16 +602,16 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.2">
@@ -620,13 +622,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.2">
@@ -637,19 +639,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="31.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,10 +662,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.2">
@@ -677,13 +679,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.2">
